--- a/data/air_info/成都-乌鲁木齐.xlsx
+++ b/data/air_info/成都-乌鲁木齐.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A91D44E-B335-4443-A8BD-8695A2F4BA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BFDCF0-B9E2-46C4-8AA8-EBBD247FA4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,33 +33,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
-    <t>行程时间：3 小时 25 分钟</t>
-  </si>
-  <si>
     <t>成都航空经济舱Airbus A321EU 2983</t>
   </si>
   <si>
     <t>川航经济舱Airbus A3503U 8571</t>
   </si>
   <si>
-    <t>行程时间：3 小时 35 分钟</t>
-  </si>
-  <si>
     <t>川航经济舱Airbus A321 (Sharklets)3U 6513</t>
   </si>
   <si>
-    <t>行程时间：3 小时 40 分钟</t>
-  </si>
-  <si>
     <t>海航经济舱Airbus A330HU 7828</t>
   </si>
   <si>
     <t>川航经济舱Airbus A3503U 8573</t>
   </si>
   <si>
-    <t>行程时间：3 小时 45 分钟</t>
-  </si>
-  <si>
     <t>川航经济舱Airbus A3203U 6515</t>
   </si>
   <si>
@@ -106,7 +94,18 @@
   </si>
   <si>
     <t>机票价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 小时 25 分钟</t>
+  </si>
+  <si>
+    <t>3 小时 35 分钟</t>
+  </si>
+  <si>
+    <t>3 小时 40 分钟</t>
+  </si>
+  <si>
+    <t>3 小时 45 分钟</t>
   </si>
 </sst>
 </file>
@@ -459,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -471,32 +470,32 @@
     <col min="3" max="3" width="35.81640625" style="1" customWidth="1"/>
     <col min="4" max="5" width="36.1796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="48.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.26953125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="8.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.81640625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -504,23 +503,22 @@
         <v>0.3125</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
         <v>0.4548611111111111</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f ca="1">RANDBETWEEN(2800,3800)</f>
-        <v>3610</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -528,23 +526,22 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
         <v>0.49652777777777779</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G12" ca="1" si="0">RANDBETWEEN(2800,3800)</f>
-        <v>3068</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -552,23 +549,22 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
         <v>0.625</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3034</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -576,23 +572,22 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
         <v>0.73263888888888884</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3473</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -600,23 +595,22 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
         <v>0.73611111111111116</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3078</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -624,23 +618,22 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
         <v>0.77777777777777779</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3260</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -648,23 +641,22 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
         <v>0.86111111111111116</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3316</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -672,23 +664,22 @@
         <v>0.71180555555555558</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
         <v>0.85416666666666663</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3426</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -696,23 +687,22 @@
         <v>0.77430555555555558</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2">
         <v>0.92361111111111116</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3178</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -720,23 +710,22 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
         <v>0.94444444444444442</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3502</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -744,23 +733,22 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2">
         <v>0.98263888888888884</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3450</v>
+        <v>2321</v>
       </c>
     </row>
   </sheetData>
